--- a/data/6.data-collection/2.response_rates/responses_by_country_2023-10-30.xlsx
+++ b/data/6.data-collection/2.response_rates/responses_by_country_2023-10-30.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="278">
   <si>
     <t xml:space="preserve">Country_name</t>
   </si>
@@ -50,7 +50,7 @@
     <t xml:space="preserve">Algeria</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0%</t>
+    <t xml:space="preserve">23.7%</t>
   </si>
   <si>
     <t xml:space="preserve">Angola</t>
@@ -68,766 +68,784 @@
     <t xml:space="preserve">Argentina</t>
   </si>
   <si>
+    <t xml:space="preserve">14.0%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Armenia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Australia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Austria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Azerbaijan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bahamas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bahrain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bangladesh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barbados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belarus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belgium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bolivia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bosnia and Herzegovina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botswana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brazil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brunei Darussalam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bulgaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burkina Faso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burundi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambodia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cameroon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Central African Republic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">China</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colombia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comoros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.0%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Congo, Rep. of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.3%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Costa Rica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cote d'Ivoire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Croatia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyprus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Czech Republic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Democratic Rep. of the Congo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Denmark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Djibouti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dominica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dominican Republic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecuador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egypt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Salvador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eritrea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estonia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ethiopia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fiji</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gabon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Georgia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Germany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ghana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greece</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grenada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guatemala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guyana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haiti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Honduras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hungary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.8%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indonesia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iran, Islamic Republic of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iraq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Israel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Italy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jamaica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jordan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kazakhstan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kenya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kingdom of Eswatini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Korea, Republic of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kuwait</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyrgyzstan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lao P.D.R.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Latvia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lebanon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lesotho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liberia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Libya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lithuania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madagascar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malawi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malaysia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marshall Islands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauritania</t>
+  </si>
+  <si>
     <t xml:space="preserve">11.8%</t>
   </si>
   <si>
-    <t xml:space="preserve">Armenia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Australia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Austria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Azerbaijan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bahamas</t>
+    <t xml:space="preserve">Mauritius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mexico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mongolia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montenegro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morocco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mozambique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myanmar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namibia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nepal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Netherlands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Zealand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicaragua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nigeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Macedonia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pakistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Papua New Guinea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paraguay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Philippines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portugal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qatar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Republic of Moldova</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Romania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russian Federation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rwanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint Lucia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint Vincent &amp; the Grenadines</t>
   </si>
   <si>
     <t xml:space="preserve">15.4%</t>
   </si>
   <si>
-    <t xml:space="preserve">Bahrain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bangladesh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barbados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belarus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belgium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belize</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bolivia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bosnia and Herzegovina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Botswana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brazil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brunei Darussalam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bulgaria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burkina Faso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burundi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cambodia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cameroon</t>
+    <t xml:space="preserve">Samoa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saudi Arabia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senegal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serbia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seychelles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sierra Leone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Singapore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slovakia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slovenia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Africa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.6%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sri Lanka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State of Palestine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sudan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sweden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Syrian Arab Republic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TÃ¼rkiye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tajikistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thailand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Togo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tunisia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turkmenistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uganda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ukraine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Arab Emirates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Kingdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Republic of Tanzania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uruguay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uzbekistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanuatu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venezuela</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viet Nam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yemen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zambia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zimbabwe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOTAL</t>
   </si>
   <si>
     <t xml:space="preserve">13.4%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Central African Republic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">China</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colombia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comoros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.0%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Congo, Rep. of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.3%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Costa Rica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cote d'Ivoire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Croatia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cyprus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Czech Republic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Democratic Rep. of the Congo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Denmark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Djibouti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dominica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dominican Republic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ecuador</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Egypt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El Salvador</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eritrea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estonia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ethiopia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fiji</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">France</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gabon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Georgia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Germany</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ghana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Greece</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grenada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guatemala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guyana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Haiti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Honduras</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hungary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">India</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.8%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indonesia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iran, Islamic Republic of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iraq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Israel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Italy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jamaica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Japan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jordan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kazakhstan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kenya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kingdom of Eswatini</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Korea, Republic of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kuwait</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kyrgyzstan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lao P.D.R.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Latvia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lebanon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lesotho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liberia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Libya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lithuania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madagascar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malawi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malaysia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mali</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marshall Islands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mauritania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mauritius</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mexico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mongolia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Montenegro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morocco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mozambique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Myanmar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Namibia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nepal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Netherlands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Zealand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nicaragua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Niger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nigeria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">North Macedonia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pakistan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Palau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Papua New Guinea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paraguay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Philippines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Portugal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qatar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Republic of Moldova</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Romania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Russian Federation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rwanda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saint Lucia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saint Vincent &amp; the Grenadines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samoa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saudi Arabia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Senegal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serbia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seychelles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sierra Leone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Singapore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slovakia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slovenia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Africa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.6%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sri Lanka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State of Palestine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sudan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sweden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Syrian Arab Republic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TÃ¼rkiye</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tajikistan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thailand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Togo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trinidad and Tobago</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tunisia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turkmenistan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uganda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ukraine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United Arab Emirates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United Republic of Tanzania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uruguay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uzbekistan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vanuatu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Venezuela</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viet Nam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yemen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zambia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zimbabwe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOTAL</t>
   </si>
 </sst>
 </file>
@@ -1326,13 +1344,13 @@
         <v>13</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>12</v>
@@ -1395,13 +1413,13 @@
         <v>22</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>18</v>
@@ -1418,13 +1436,13 @@
         <v>11</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>14</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>20</v>
@@ -1485,13 +1503,13 @@
         <v>12</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>26</v>
@@ -1508,13 +1526,13 @@
         <v>1</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>28</v>
@@ -1554,10 +1572,10 @@
         <v>26</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F14" s="2" t="n">
         <v>1.4</v>
@@ -1598,13 +1616,13 @@
         <v>12</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>35</v>
@@ -1642,10 +1660,10 @@
         <v>8</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18" s="2" t="n">
         <v>0</v>
@@ -1697,12 +1715,12 @@
         <v>1.4</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B21" s="2" t="n">
         <v>72</v>
@@ -1711,21 +1729,21 @@
         <v>23</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B22" s="2" t="n">
         <v>79</v>
@@ -1743,12 +1761,12 @@
         <v>2.8</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B23" s="2" t="n">
         <v>173</v>
@@ -1757,21 +1775,21 @@
         <v>22</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B24" s="2" t="n">
         <v>17</v>
@@ -1789,12 +1807,12 @@
         <v>3</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B25" s="2" t="n">
         <v>110</v>
@@ -1803,21 +1821,21 @@
         <v>30</v>
       </c>
       <c r="D25" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="E25" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="E25" s="2" t="n">
-        <v>14</v>
-      </c>
       <c r="F25" s="2" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B26" s="2" t="n">
         <v>97</v>
@@ -1835,12 +1853,12 @@
         <v>1.3</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B27" s="2" t="n">
         <v>34</v>
@@ -1858,12 +1876,12 @@
         <v>2.3</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B28" s="2" t="n">
         <v>73</v>
@@ -1872,21 +1890,21 @@
         <v>12</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B29" s="2" t="n">
         <v>97</v>
@@ -1895,21 +1913,21 @@
         <v>17</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B30" s="2" t="n">
         <v>48</v>
@@ -1927,12 +1945,12 @@
         <v>2.2</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B31" s="2" t="n">
         <v>54</v>
@@ -1944,13 +1962,13 @@
         <v>11</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32">
@@ -1964,13 +1982,13 @@
         <v>50</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>64</v>
@@ -1987,13 +2005,13 @@
         <v>37</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>66</v>
@@ -2088,12 +2106,12 @@
         <v>1.4</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B38" s="2" t="n">
         <v>72</v>
@@ -2102,21 +2120,21 @@
         <v>5</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B39" s="2" t="n">
         <v>101</v>
@@ -2125,21 +2143,21 @@
         <v>14</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F39" s="2" t="n">
         <v>1.7</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B40" s="2" t="n">
         <v>106</v>
@@ -2157,12 +2175,12 @@
         <v>1</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B41" s="2" t="n">
         <v>30</v>
@@ -2180,12 +2198,12 @@
         <v>1.6</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B42" s="2" t="n">
         <v>54</v>
@@ -2203,12 +2221,12 @@
         <v>3.1</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B43" s="2" t="n">
         <v>78</v>
@@ -2226,12 +2244,12 @@
         <v>1.9</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B44" s="2" t="n">
         <v>1</v>
@@ -2252,7 +2270,7 @@
     </row>
     <row r="45">
       <c r="A45" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B45" s="2" t="n">
         <v>18</v>
@@ -2270,12 +2288,12 @@
         <v>3</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B46" s="2" t="n">
         <v>12</v>
@@ -2284,21 +2302,21 @@
         <v>1</v>
       </c>
       <c r="D46" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E46" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="E46" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="F46" s="2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>24</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B47" s="2" t="n">
         <v>138</v>
@@ -2307,21 +2325,21 @@
         <v>35</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F47" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B48" s="2" t="n">
         <v>159</v>
@@ -2330,21 +2348,21 @@
         <v>54</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F48" s="2" t="n">
         <v>0.6</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B49" s="2" t="n">
         <v>119</v>
@@ -2356,18 +2374,18 @@
         <v>21</v>
       </c>
       <c r="E49" s="2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B50" s="2" t="n">
         <v>81</v>
@@ -2385,12 +2403,12 @@
         <v>0.8</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B51" s="2" t="n">
         <v>29</v>
@@ -2408,12 +2426,12 @@
         <v>4</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B52" s="2" t="n">
         <v>36</v>
@@ -2431,12 +2449,12 @@
         <v>1.2</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B53" s="2" t="n">
         <v>140</v>
@@ -2454,12 +2472,12 @@
         <v>1.1</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B54" s="2" t="n">
         <v>48</v>
@@ -2480,7 +2498,7 @@
     </row>
     <row r="55">
       <c r="A55" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B55" s="2" t="n">
         <v>1</v>
@@ -2501,7 +2519,7 @@
     </row>
     <row r="56">
       <c r="A56" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B56" s="2" t="n">
         <v>13</v>
@@ -2524,7 +2542,7 @@
     </row>
     <row r="57">
       <c r="A57" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B57" s="2" t="n">
         <v>44</v>
@@ -2536,18 +2554,18 @@
         <v>8</v>
       </c>
       <c r="E57" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F57" s="2" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B58" s="2" t="n">
         <v>72</v>
@@ -2565,12 +2583,12 @@
         <v>1.6</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B59" s="2" t="n">
         <v>15</v>
@@ -2588,12 +2606,12 @@
         <v>2</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B60" s="2" t="n">
         <v>92</v>
@@ -2602,21 +2620,21 @@
         <v>8</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E60" s="2" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F60" s="2" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B61" s="2" t="n">
         <v>53</v>
@@ -2625,21 +2643,21 @@
         <v>6</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E61" s="2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F61" s="2" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B62" s="2" t="n">
         <v>5</v>
@@ -2657,12 +2675,12 @@
         <v>0</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B63" s="2" t="n">
         <v>82</v>
@@ -2680,12 +2698,12 @@
         <v>2.2</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B64" s="2" t="n">
         <v>15</v>
@@ -2708,7 +2726,7 @@
     </row>
     <row r="65">
       <c r="A65" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B65" s="2" t="n">
         <v>33</v>
@@ -2726,12 +2744,12 @@
         <v>0</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B66" s="2" t="n">
         <v>95</v>
@@ -2754,7 +2772,7 @@
     </row>
     <row r="67">
       <c r="A67" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B67" s="2" t="n">
         <v>69</v>
@@ -2772,12 +2790,12 @@
         <v>0.6</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B68" s="2" t="n">
         <v>69</v>
@@ -2795,12 +2813,12 @@
         <v>0.5</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B69" s="2" t="n">
         <v>174</v>
@@ -2809,21 +2827,21 @@
         <v>82</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E69" s="2" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F69" s="2" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B70" s="2" t="n">
         <v>122</v>
@@ -2841,12 +2859,12 @@
         <v>1</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B71" s="2" t="n">
         <v>113</v>
@@ -2864,12 +2882,12 @@
         <v>1.8</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B72" s="2" t="n">
         <v>32</v>
@@ -2887,12 +2905,12 @@
         <v>2.5</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B73" s="2" t="n">
         <v>9</v>
@@ -2910,12 +2928,12 @@
         <v>0</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B74" s="2" t="n">
         <v>66</v>
@@ -2933,12 +2951,12 @@
         <v>1.5</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>134</v>
+        <v>50</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B75" s="2" t="n">
         <v>40</v>
@@ -2956,12 +2974,12 @@
         <v>3.2</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B76" s="2" t="n">
         <v>113</v>
@@ -2984,7 +3002,7 @@
     </row>
     <row r="77">
       <c r="A77" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B77" s="2" t="n">
         <v>89</v>
@@ -3002,12 +3020,12 @@
         <v>1.7</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B78" s="2" t="n">
         <v>137</v>
@@ -3025,12 +3043,12 @@
         <v>1.1</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B79" s="2" t="n">
         <v>13</v>
@@ -3048,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>142</v>
+        <v>28</v>
       </c>
     </row>
     <row r="80">
@@ -3108,21 +3126,21 @@
         <v>6</v>
       </c>
       <c r="D82" s="2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E82" s="2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F82" s="2" t="n">
         <v>1.1</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>10</v>
+        <v>148</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B83" s="2" t="n">
         <v>47</v>
@@ -3140,12 +3158,12 @@
         <v>2</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B84" s="2" t="n">
         <v>43</v>
@@ -3163,12 +3181,12 @@
         <v>1.3</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>110</v>
+        <v>152</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B85" s="2" t="n">
         <v>43</v>
@@ -3186,12 +3204,12 @@
         <v>1</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>110</v>
+        <v>152</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B86" s="2" t="n">
         <v>35</v>
@@ -3209,12 +3227,12 @@
         <v>2.4</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B87" s="2" t="n">
         <v>17</v>
@@ -3232,12 +3250,12 @@
         <v>3</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B88" s="2" t="n">
         <v>96</v>
@@ -3255,12 +3273,12 @@
         <v>1.3</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B89" s="2" t="n">
         <v>52</v>
@@ -3278,12 +3296,12 @@
         <v>1.8</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B90" s="2" t="n">
         <v>71</v>
@@ -3301,12 +3319,12 @@
         <v>1.3</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B91" s="2" t="n">
         <v>52</v>
@@ -3324,12 +3342,12 @@
         <v>0.8</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B92" s="2" t="n">
         <v>175</v>
@@ -3347,12 +3365,12 @@
         <v>1.2</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>92</v>
+        <v>165</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="3" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B93" s="2" t="n">
         <v>68</v>
@@ -3370,12 +3388,12 @@
         <v>1.4</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>164</v>
+        <v>26</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B94" s="2" t="n">
         <v>43</v>
@@ -3393,12 +3411,12 @@
         <v>1</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>110</v>
+        <v>152</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B95" s="2" t="n">
         <v>27</v>
@@ -3416,12 +3434,12 @@
         <v>2.5</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B96" s="2" t="n">
         <v>68</v>
@@ -3439,12 +3457,12 @@
         <v>1.2</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>18</v>
+        <v>170</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="3" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B97" s="2" t="n">
         <v>72</v>
@@ -3453,21 +3471,21 @@
         <v>6</v>
       </c>
       <c r="D97" s="2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E97" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" s="2" t="n">
         <v>1.3</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="3" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B98" s="2" t="n">
         <v>165</v>
@@ -3485,12 +3503,12 @@
         <v>0.8</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="3" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B99" s="2" t="n">
         <v>107</v>
@@ -3508,12 +3526,12 @@
         <v>2.1</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="3" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B100" s="2" t="n">
         <v>58</v>
@@ -3531,12 +3549,12 @@
         <v>1.4</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B101" s="2" t="n">
         <v>119</v>
@@ -3554,12 +3572,12 @@
         <v>0.8</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>177</v>
+        <v>114</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="3" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B102" s="2" t="n">
         <v>41</v>
@@ -3577,12 +3595,12 @@
         <v>1.4</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>179</v>
+        <v>35</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B103" s="2" t="n">
         <v>104</v>
@@ -3600,12 +3618,12 @@
         <v>1.2</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>110</v>
+        <v>152</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B104" s="2" t="n">
         <v>84</v>
@@ -3623,12 +3641,12 @@
         <v>0</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B105" s="2" t="n">
         <v>89</v>
@@ -3646,12 +3664,12 @@
         <v>0.9</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B106" s="2" t="n">
         <v>1</v>
@@ -3672,7 +3690,7 @@
     </row>
     <row r="107">
       <c r="A107" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B107" s="2" t="n">
         <v>23</v>
@@ -3695,7 +3713,7 @@
     </row>
     <row r="108">
       <c r="A108" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B108" s="2" t="n">
         <v>88</v>
@@ -3713,12 +3731,12 @@
         <v>0.4</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B109" s="2" t="n">
         <v>77</v>
@@ -3736,12 +3754,12 @@
         <v>1.1</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B110" s="2" t="n">
         <v>127</v>
@@ -3759,12 +3777,12 @@
         <v>1.1</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B111" s="2" t="n">
         <v>54</v>
@@ -3776,18 +3794,18 @@
         <v>12</v>
       </c>
       <c r="E111" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" s="2" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B112" s="2" t="n">
         <v>68</v>
@@ -3805,12 +3823,12 @@
         <v>1.1</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>18</v>
+        <v>170</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B113" s="2" t="n">
         <v>221</v>
@@ -3819,21 +3837,21 @@
         <v>26</v>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E113" s="2" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F113" s="2" t="n">
         <v>1.6</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>28</v>
+        <v>197</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="3" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B114" s="2" t="n">
         <v>16</v>
@@ -3856,7 +3874,7 @@
     </row>
     <row r="115">
       <c r="A115" s="3" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B115" s="2" t="n">
         <v>117</v>
@@ -3865,21 +3883,21 @@
         <v>25</v>
       </c>
       <c r="D115" s="2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E115" s="2" t="n">
         <v>11</v>
       </c>
       <c r="F115" s="2" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="3" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B116" s="2" t="n">
         <v>28</v>
@@ -3897,12 +3915,12 @@
         <v>1.1</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="3" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B117" s="2" t="n">
         <v>119</v>
@@ -3920,12 +3938,12 @@
         <v>1.3</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="3" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B118" s="2" t="n">
         <v>142</v>
@@ -3934,21 +3952,21 @@
         <v>30</v>
       </c>
       <c r="D118" s="2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E118" s="2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F118" s="2" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="3" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B119" s="2" t="n">
         <v>126</v>
@@ -3957,21 +3975,21 @@
         <v>31</v>
       </c>
       <c r="D119" s="2" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E119" s="2" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F119" s="2" t="n">
         <v>1.5</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>30</v>
+        <v>208</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="3" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B120" s="2" t="n">
         <v>65</v>
@@ -3980,21 +3998,21 @@
         <v>26</v>
       </c>
       <c r="D120" s="2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E120" s="2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F120" s="2" t="n">
         <v>1.8</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="3" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B121" s="2" t="n">
         <v>44</v>
@@ -4012,12 +4030,12 @@
         <v>0.9</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="3" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B122" s="2" t="n">
         <v>73</v>
@@ -4035,12 +4053,12 @@
         <v>0.7</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B123" s="2" t="n">
         <v>52</v>
@@ -4049,21 +4067,21 @@
         <v>16</v>
       </c>
       <c r="D123" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E123" s="2" t="n">
         <v>10</v>
-      </c>
-      <c r="E123" s="2" t="n">
-        <v>8</v>
       </c>
       <c r="F123" s="2" t="n">
         <v>1.1</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="3" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B124" s="2" t="n">
         <v>101</v>
@@ -4081,12 +4099,12 @@
         <v>1.9</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="3" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B125" s="2" t="n">
         <v>72</v>
@@ -4104,12 +4122,12 @@
         <v>1.4</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="3" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B126" s="2" t="n">
         <v>33</v>
@@ -4127,12 +4145,12 @@
         <v>2.2</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>105</v>
+        <v>219</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="3" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B127" s="2" t="n">
         <v>9</v>
@@ -4150,12 +4168,12 @@
         <v>0</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="3" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B128" s="2" t="n">
         <v>13</v>
@@ -4167,18 +4185,18 @@
         <v>4</v>
       </c>
       <c r="E128" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F128" s="2" t="n">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>42</v>
+        <v>222</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="3" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B129" s="2" t="n">
         <v>5</v>
@@ -4199,7 +4217,7 @@
     </row>
     <row r="130">
       <c r="A130" s="3" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B130" s="2" t="n">
         <v>60</v>
@@ -4220,7 +4238,7 @@
     </row>
     <row r="131">
       <c r="A131" s="3" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B131" s="2" t="n">
         <v>80</v>
@@ -4229,21 +4247,21 @@
         <v>6</v>
       </c>
       <c r="D131" s="2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E131" s="2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F131" s="2" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>222</v>
+        <v>81</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="3" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B132" s="2" t="n">
         <v>81</v>
@@ -4252,21 +4270,21 @@
         <v>20</v>
       </c>
       <c r="D132" s="2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E132" s="2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F132" s="2" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="3" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B133" s="2" t="n">
         <v>53</v>
@@ -4284,12 +4302,12 @@
         <v>2.6</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="3" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B134" s="2" t="n">
         <v>48</v>
@@ -4307,12 +4325,12 @@
         <v>1</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>44</v>
+        <v>172</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="3" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B135" s="2" t="n">
         <v>54</v>
@@ -4330,12 +4348,12 @@
         <v>1.5</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="3" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B136" s="2" t="n">
         <v>56</v>
@@ -4353,12 +4371,12 @@
         <v>2.3</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B137" s="2" t="n">
         <v>80</v>
@@ -4376,12 +4394,12 @@
         <v>1.1</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="3" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B138" s="2" t="n">
         <v>139</v>
@@ -4390,21 +4408,21 @@
         <v>43</v>
       </c>
       <c r="D138" s="2" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E138" s="2" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F138" s="2" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="3" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B139" s="2" t="n">
         <v>14</v>
@@ -4422,12 +4440,12 @@
         <v>1.8</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="3" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B140" s="2" t="n">
         <v>109</v>
@@ -4445,12 +4463,12 @@
         <v>1.8</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="3" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B141" s="2" t="n">
         <v>27</v>
@@ -4468,12 +4486,12 @@
         <v>2</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="3" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B142" s="2" t="n">
         <v>179</v>
@@ -4491,12 +4509,12 @@
         <v>1.6</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="3" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="B143" s="2" t="n">
         <v>4</v>
@@ -4517,7 +4535,7 @@
     </row>
     <row r="144">
       <c r="A144" s="3" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B144" s="2" t="n">
         <v>82</v>
@@ -4535,12 +4553,12 @@
         <v>4.7</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="3" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B145" s="2" t="n">
         <v>130</v>
@@ -4549,21 +4567,21 @@
         <v>14</v>
       </c>
       <c r="D145" s="2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E145" s="2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F145" s="2" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>245</v>
+        <v>127</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="3" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B146" s="2" t="n">
         <v>49</v>
@@ -4586,7 +4604,7 @@
     </row>
     <row r="147">
       <c r="A147" s="3" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B147" s="2" t="n">
         <v>168</v>
@@ -4604,12 +4622,12 @@
         <v>1.3</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="3" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B148" s="2" t="n">
         <v>30</v>
@@ -4618,21 +4636,21 @@
         <v>2</v>
       </c>
       <c r="D148" s="2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E148" s="2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F148" s="2" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="3" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B149" s="2" t="n">
         <v>16</v>
@@ -4650,12 +4668,12 @@
         <v>0.5</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="3" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B150" s="2" t="n">
         <v>102</v>
@@ -4673,12 +4691,12 @@
         <v>1.1</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>44</v>
+        <v>172</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="3" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B151" s="2" t="n">
         <v>8</v>
@@ -4696,12 +4714,12 @@
         <v>0</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="3" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B152" s="2" t="n">
         <v>90</v>
@@ -4710,21 +4728,21 @@
         <v>12</v>
       </c>
       <c r="D152" s="2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E152" s="2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F152" s="2" t="n">
         <v>0.8</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="3" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B153" s="2" t="n">
         <v>131</v>
@@ -4742,12 +4760,12 @@
         <v>2.2</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="3" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B154" s="2" t="n">
         <v>40</v>
@@ -4765,12 +4783,12 @@
         <v>2.8</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="3" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B155" s="2" t="n">
         <v>10</v>
@@ -4791,7 +4809,7 @@
     </row>
     <row r="156">
       <c r="A156" s="3" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B156" s="2" t="n">
         <v>145</v>
@@ -4809,12 +4827,12 @@
         <v>1.9</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="3" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B157" s="2" t="n">
         <v>112</v>
@@ -4832,12 +4850,12 @@
         <v>0.9</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="3" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B158" s="2" t="n">
         <v>73</v>
@@ -4846,21 +4864,21 @@
         <v>8</v>
       </c>
       <c r="D158" s="2" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E158" s="2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F158" s="2" t="n">
         <v>0.9</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="3" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B159" s="2" t="n">
         <v>22</v>
@@ -4878,12 +4896,12 @@
         <v>0</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>105</v>
+        <v>219</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="3" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B160" s="2" t="n">
         <v>133</v>
@@ -4901,12 +4919,12 @@
         <v>1.1</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>125</v>
+        <v>270</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="B161" s="2" t="n">
         <v>152</v>
@@ -4915,21 +4933,21 @@
         <v>23</v>
       </c>
       <c r="D161" s="2" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E161" s="2" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F161" s="2" t="n">
         <v>1.8</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>35</v>
+        <v>272</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="3" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="B162" s="2" t="n">
         <v>83</v>
@@ -4947,12 +4965,12 @@
         <v>1.1</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>268</v>
+        <v>43</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="3" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="B163" s="2" t="n">
         <v>83</v>
@@ -4970,12 +4988,12 @@
         <v>0.2</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>268</v>
+        <v>43</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="3" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="B164" s="2" t="n">
         <v>106</v>
@@ -4998,7 +5016,7 @@
     </row>
     <row r="165">
       <c r="A165" s="1" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="B165" s="4" t="n">
         <v>11609</v>
@@ -5007,16 +5025,16 @@
         <v>2220</v>
       </c>
       <c r="D165" s="4" t="n">
-        <v>1891</v>
+        <v>1952</v>
       </c>
       <c r="E165" s="4" t="n">
-        <v>1494</v>
+        <v>1559</v>
       </c>
       <c r="F165" s="4" t="n">
         <v>1.5</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
